--- a/references/reference checking.xlsx
+++ b/references/reference checking.xlsx
@@ -1,30 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AED Dropbox\Peisheng Huang\PeelBook\deployed\peel-book\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_E8D5E80944B5FE16428A49A1F0F7152907497525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232C93A9-7220-4855-B9C2-E10BBDBDD106}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="10485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sorcha Cronin-O'Reilly</author>
+  </authors>
+  <commentList>
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{C438BA7D-B871-49BF-9107-93C9D9C3AF21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Sorcha Cronin-O'Reilly:
+This should be replaced by Hallett et al. (2019b) - The sediment condition paper. 
+This 2019a ref is for the fish index, </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+  <si>
+    <r>
+      <t xml:space="preserve">Allen, R.G., Pereira, L.S., Raes, D., Smith, M., 1998. Crop evapotranspiration-Guidelines for computing crop water requirements-FAO Irrigation and drainage paper 56, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fao, Rome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 300, D05109.</t>
+    </r>
+  </si>
   <si>
     <r>
       <t xml:space="preserve">Allen, R. G., Pereira, L. S., Raes, D. &amp; Smith, M. </t>
@@ -52,8 +116,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Allen, R.G., Pereira, L.S., Raes, D., Smith, M., 1998. Crop evapotranspiration-Guidelines for computing crop water requirements-FAO Irrigation and drainage paper 56, </t>
+    <t>Bradby, K., 1997. Peel-Harvey: the decline and rescue of an ecosystem. Greening the Catchment Taskforce (Incorporated).</t>
+  </si>
+  <si>
+    <t>Publisher: Greening the Catchment Taskforce, Mandurah</t>
+  </si>
+  <si>
+    <t>ISBN: 0730980413</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Burdige, D., 2011. 5.09 Estuarine and coastal sediments–coupled biogeochemical cycling, </t>
     </r>
     <r>
       <rPr>
@@ -64,31 +137,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fao, Rome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 300, D05109.</t>
-    </r>
-  </si>
-  <si>
-    <t>Bradby, K., 1997. Peel-Harvey: the decline and rescue of an ecosystem. Greening the Catchment Taskforce (Incorporated).</t>
-  </si>
-  <si>
-    <t>Publisher: Greening the Catchment Taskforce, Mandurah</t>
-  </si>
-  <si>
-    <t>ISBN: 0730980413</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Burdige, D., 2011. 5.09 Estuarine and coastal sediments–coupled biogeochemical cycling, </t>
+      <t>Treatise on Estuarine and Coastal Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5, 279—308.</t>
+    </r>
+  </si>
+  <si>
+    <t>in: Treatise on Estuarine and Coastal Science, vol. 5, Biogeochemistry (Laane, R. and Middelburg, J.J. Eds). Academic Press. 2012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clarke, K., Gorley, R., 2015. Getting started with PRIMER v7, </t>
     </r>
     <r>
       <rPr>
@@ -99,25 +166,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Treatise on Estuarine and Coastal Science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5, 279—308.</t>
-    </r>
-  </si>
-  <si>
-    <t>in: Treatise on Estuarine and Coastal Science, vol. 5, Biogeochemistry (Laane, R. and Middelburg, J.J. Eds). Academic Press. 2012</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Clarke, K., Gorley, R., 2015. Getting started with PRIMER v7, </t>
+      <t>PRIMER-E: Plymouth, Plymouth Marine Laboratory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20.</t>
+    </r>
+  </si>
+  <si>
+    <t>publisher: PRIMER-E Ltd</t>
+  </si>
+  <si>
+    <t>Commission, P., 2017. Transitioning Regional Economies, Study Report, in: T.</t>
+  </si>
+  <si>
+    <t>Productivity Commission 2017, Transitioning Regional Economies, Study Report, Canberra.</t>
+  </si>
+  <si>
+    <t>Cronin-O’Reilly, S., Valesini, F., Hallett, C., 2019. Assessing the health of the Peel-Harvey Estuary through its benthic invertebrate fauna. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <t>update to chapter</t>
+  </si>
+  <si>
+    <t>Development, W.A.D. of R., 2014. Summary/Structure of the Key Elements of the Regional Blueprint for Integrated Regional Growth and Development.</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Gabrielson, J.O., 1980. The Sediment Contribution to Nutrient Cycling in the Peel/Harvey Estuarine System. Department of Soil Science; Plant Nutrition.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hallett, C.S., Valesini, F., Elliott, M., 2016. A review of Australian approaches for monitoring, assessing and reporting estuarine condition: I. International context and evaluation criteria, </t>
     </r>
     <r>
       <rPr>
@@ -128,46 +216,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PRIMER-E: Plymouth, Plymouth Marine Laboratory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 20.</t>
-    </r>
-  </si>
-  <si>
-    <t>publisher: PRIMER-E Ltd</t>
-  </si>
-  <si>
-    <t>Productivity Commission 2017, Transitioning Regional Economies, Study Report, Canberra.</t>
-  </si>
-  <si>
-    <t>Commission, P., 2017. Transitioning Regional Economies, Study Report, in: T.</t>
-  </si>
-  <si>
-    <t>Cronin-O’Reilly, S., Valesini, F., Hallett, C., 2019. Assessing the health of the Peel-Harvey Estuary through its benthic invertebrate fauna. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <t>update to chapter</t>
-  </si>
-  <si>
-    <t>Development, W.A.D. of R., 2014. Summary/Structure of the Key Elements of the Regional Blueprint for Integrated Regional Growth and Development.</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Gabrielson, J.O., 1980. The Sediment Contribution to Nutrient Cycling in the Peel/Harvey Estuarine System. Department of Soil Science; Plant Nutrition.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hallett, C.S., Valesini, F., Elliott, M., 2016. A review of Australian approaches for monitoring, assessing and reporting estuarine condition: I. International context and evaluation criteria, </t>
+      <t>Environmental Science \&amp; Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 66, 260—269.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hallett, Chris S., Valesini, F.J., Kilminster, K., Wells, N.S., Eyre, B.D., 2019b. A rapid protocol for assessing sediment condition in eutrophic estuaries, </t>
     </r>
     <r>
       <rPr>
@@ -178,22 +242,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Environmental Science \&amp; Policy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 66, 260—269.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hallett, Chris S., Valesini, F.J., Kilminster, K., Wells, N.S., Eyre, B.D., 2019b. A rapid protocol for assessing sediment condition in eutrophic estuaries, </t>
+      <t>Environmental Science: Processes \&amp; Impacts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 21, 1021—1037.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hallett, C.S., Valesini, F.J., O’Reilly, S., Kilminster, K., Wells, N., Eyre, B., 2019. Sediment condition in the Peel-Harvey Estuary. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <t>Hallett, C., Valesini, F., 2012. Validation of the Fish Community Index of Estuarine Condition and development of a monitoring regime for the Swan-Canning Riverpark.</t>
+  </si>
+  <si>
+    <t>Hennig, K., Kelsey, P., 2015. Avon Basin Hydrological and Nutrient Modelling, Water Science Technical Series, Report No. 74.</t>
+  </si>
+  <si>
+    <t>Hipsey, M.R., Hennig, K., Valesini, F.J., Kilminster, K., Huang, P., Busch, B., Plummer, P., Elliot, M., 2019. Estuarine and societal health trade-offs for the Peel-Harvey under 2050 scenarios. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hodgkin, E., Birch, P., Black, R., Humphries, R., 1980. The Peel-Harvey estuarine system study (1976–1980), </t>
     </r>
     <r>
       <rPr>
@@ -204,34 +280,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Environmental Science: Processes \&amp; Impacts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 21, 1021—1037.</t>
-    </r>
-  </si>
-  <si>
-    <t>Hallett, C.S., Valesini, F.J., O’Reilly, S., Kilminster, K., Wells, N., Eyre, B., 2019. Sediment condition in the Peel-Harvey Estuary. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <t>Hallett, C., Valesini, F., 2012. Validation of the Fish Community Index of Estuarine Condition and development of a monitoring regime for the Swan-Canning Riverpark.</t>
-  </si>
-  <si>
-    <t>Hennig, K., Kelsey, P., 2015. Avon Basin Hydrological and Nutrient Modelling, Water Science Technical Series, Report No. 74.</t>
-  </si>
-  <si>
-    <t>Hipsey, M.R., Hennig, K., Valesini, F.J., Kilminster, K., Huang, P., Busch, B., Plummer, P., Elliot, M., 2019. Estuarine and societal health trade-offs for the Peel-Harvey under 2050 scenarios. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hodgkin, E., Birch, P., Black, R., Humphries, R., 1980. The Peel-Harvey estuarine system study (1976–1980), </t>
+      <t>Depart. Cons. Envir. Report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Huang, P., Hennig, K., Busch, B., Hipsey, M.R., 2019a. The changing hydrology of the Peel- Harvey estuary: past, present and future. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. The University of Western Australia, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <t>Huang, P., Hennig, K., Busch, B., Hipsey, M.R., 2019b. Integrated modelling assessment of nutrient cycling and water quality in the Peel-Harvey estuary. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. The University of Western Australia, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hugues-dit-Ciles, J., Kelsey, P., Marillier, B., Robb, M., Forbes, V., McKenna, M., 2012. Leschenault estuary water quality improvement plan, </t>
     </r>
     <r>
       <rPr>
@@ -242,7 +312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Depart. Cons. Envir. Report</t>
+      <t>Perth, WA: Department of Water</t>
     </r>
     <r>
       <rPr>
@@ -256,14 +326,11 @@
     </r>
   </si>
   <si>
-    <t>Huang, P., Hennig, K., Busch, B., Hipsey, M.R., 2019a. The changing hydrology of the Peel- Harvey estuary: past, present and future. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. The University of Western Australia, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <t>Huang, P., Hennig, K., Busch, B., Hipsey, M.R., 2019b. Integrated modelling assessment of nutrient cycling and water quality in the Peel-Harvey estuary. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. The University of Western Australia, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hugues-dit-Ciles, J., Kelsey, P., Marillier, B., Robb, M., Forbes, V., McKenna, M., 2012. Leschenault estuary water quality improvement plan, </t>
+    <t>Kilminster, K., Hennig, K., Kelsey, P., Marillier, B., Hall, J., Gunaratne, G., Robb, M., 2019. Modelling of the Peel-Harvey catchment. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Department of Water; Environmental Regulation, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kraal, P., Burton, E.D., Rose, A.L., Cheetham, M.D., Bush, R.T., Sullivan, L.A., 2013b. Decoupling between water column oxygenation and benthic phosphate dynamics in a shallow eutrophic estuary, </t>
     </r>
     <r>
       <rPr>
@@ -274,25 +341,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Perth, WA: Department of Water</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kilminster, K., Hennig, K., Kelsey, P., Marillier, B., Hall, J., Gunaratne, G., Robb, M., 2019. Modelling of the Peel-Harvey catchment. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Department of Water; Environmental Regulation, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kraal, P., Burton, E.D., Rose, A.L., Cheetham, M.D., Bush, R.T., Sullivan, L.A., 2013b. Decoupling between water column oxygenation and benthic phosphate dynamics in a shallow eutrophic estuary, </t>
+      <t>Environmental science \&amp; technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 47, 3114—3121.</t>
+    </r>
+  </si>
+  <si>
+    <t>Krumholz, O., 2019. Macrophyte communities in the Peel-Harvey Estuary: Historical trends and current patterns in biomass and distribution (PhD thesis).</t>
+  </si>
+  <si>
+    <t>Ladson, A., Weinmann, E., 2008. Hydrology–An Australian Introduction.</t>
+  </si>
+  <si>
+    <t>Pedretti, Y.M., Kobryn, H.T., Sommerville, E.F., Wienczugow, K., 2011. Snapshot survey of the distribution and abundance of seagrass and macroalgae in the peel-harvey estuary from november/december 2009. Report to department of water. Report number MAFRL 11.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plummer, P., Tonts, M., Martinus, K., 2014. Endogenous growth, local competitiveness and regional development: Western Australia’s Regional Cities, 2001-2011, </t>
     </r>
     <r>
       <rPr>
@@ -303,31 +376,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Environmental science \&amp; technology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 47, 3114—3121.</t>
-    </r>
-  </si>
-  <si>
-    <t>Krumholz, O., 2019. Macrophyte communities in the Peel-Harvey Estuary: Historical trends and current patterns in biomass and distribution (PhD thesis).</t>
-  </si>
-  <si>
-    <t>Ladson, A., Weinmann, E., 2008. Hydrology–An Australian Introduction.</t>
-  </si>
-  <si>
-    <t>Pedretti, Y.M., Kobryn, H.T., Sommerville, E.F., Wienczugow, K., 2011. Snapshot survey of the distribution and abundance of seagrass and macroalgae in the peel-harvey estuary from november/december 2009. Report to department of water. Report number MAFRL 11.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Plummer, P., Tonts, M., Martinus, K., 2014. Endogenous growth, local competitiveness and regional development: Western Australia’s Regional Cities, 2001-2011, </t>
+      <t>Journal of Economic \&amp; Social Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16, 146.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sullivan, L.A., Bush, R.T., Fyfe, D.M., 2002. Acid sulfate soil drain ooze: distribution, behaviour and implications for acidification and deoxygenation of waterways.</t>
+  </si>
+  <si>
+    <t>Valesini, F.J., Krumholz, O., Hallett, C., Kobryn, H., 2019. Seagrass and macroalgal communities of the Peel-Harvey Estuary from 1978–2018. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wells, N.S., Clough, T.J., Johnson-Beebout, S.E., Elberling, B., Baisden, W.T., 2019. Effects of denitrification and transport on the isotopic composition of nitrate </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Welsh, W.D., Vaze, J., Dutta, D., Rassam, D., Rahman, J.M., Jolly, I.D., Wallbrink, P., Podger, G.M., Bethune, M., Hardy, M.J., 2013. An integrated modelling framework for regulated river systems, </t>
     </r>
     <r>
       <rPr>
@@ -338,41 +411,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Journal of Economic \&amp; Social Policy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 16, 146.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sullivan, L.A., Bush, R.T., Fyfe, D.M., 2002. Acid sulfate soil drain ooze: distribution, behaviour and implications for acidification and deoxygenation of waterways.</t>
-  </si>
-  <si>
-    <t>Valesini, F.J., Krumholz, O., Hallett, C., Kobryn, H., 2019. Seagrass and macroalgal communities of the Peel-Harvey Estuary from 1978–2018. Balancing estuarine and societal health in a changing environment, ARC Linkage Project LP150100451. Unpublished report. Murdoch University, Perth, Western Australia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wells, N.S., Clough, T.J., Johnson-Beebout, S.E., Elberling, B., Baisden, W.T., 2019. Effects of denitrification and transport on the isotopic composition of nitrate </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Welsh, W.D., Vaze, J., Dutta, D., Rassam, D., Rahman, J.M., Jolly, I.D., Wallbrink, P., Podger, G.M., Bethune, M., Hardy, M.J., 2013. An integrated modelling framework for regulated river systems, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Environmental Modelling \&amp; Software</t>
     </r>
     <r>
@@ -385,13 +423,180 @@
       </rPr>
       <t xml:space="preserve"> 39, 81—102.</t>
     </r>
+  </si>
+  <si>
+    <t>In-text</t>
+  </si>
+  <si>
+    <t>Citation in referece list</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Eyre, 205AD</t>
+  </si>
+  <si>
+    <t>Eyre, B.D., 205AD. Regional evaluation of nutrient transformation and phytoplankton growth in nine river-dominated sub-tropical east australian estuaries, Marine Ecology Progress Series.</t>
+  </si>
+  <si>
+    <t>F. J. Valesini et al., 2019</t>
+  </si>
+  <si>
+    <t>Valesini, F.J., Hallett, C.S., Hipsey, M.R., Kilminster, K.L., Huang, P., Hennig, K., 2019. Peel-harvey estuary, western australia, in: Coasts and estuaries: The future (edited by: Wolanski, e., Day, j.w., Elloitt, m., And ramachandran, r. ). Elsevier. https://doi.org/10.1016/C2017-0-00731-0</t>
+  </si>
+  <si>
+    <t>Statistics, 2018</t>
+  </si>
+  <si>
+    <t>Not sure if this is correct/incorrect so flagging for final check</t>
+  </si>
+  <si>
+    <t>Statistics, A.B. of, 2018. Census. Available online at &lt;http://www.abs.gov.au/websitedbs/D3310114.nsf/home/census?opendocument&amp;ref=topBar&gt; (accessed january 2018).</t>
+  </si>
+  <si>
+    <t>C. S. Hallett et al., 2012</t>
+  </si>
+  <si>
+    <t>Hallett, C.S., Valesini, F.J., Clarke, K.R., Hesp, S.A., Hoeksema, S.D., 2012. Development and validation of fish-based, multimetric indices for assessing the ecological health of western australian estuaries, Estuarine, Coastal and Shelf Science 104-105, 102–113.</t>
+  </si>
+  <si>
+    <t>Huang et al., 2019b</t>
+  </si>
+  <si>
+    <t>This should be just 2019, with no letter, when the old 2019a citation to Chapter 3 is corrected.</t>
+  </si>
+  <si>
+    <t>Huang, P., Trayler, K., Wang, B., Saeed, A., Oldham, C.E., Busch, B., Hipsey, M.R., 2019b. An integrated modelling system for water quality forecasting in an urban eutrophic estuary: The swan-canning estuary virtual observatory, Journal of Marine Systems 199, 103218.</t>
+  </si>
+  <si>
+    <t>Chapter 8</t>
+  </si>
+  <si>
+    <t>M. D. Wildsmith et al., 2009</t>
+  </si>
+  <si>
+    <t>Wildsmith, M., Rose, T., Potter, I., Warwick, R., Clarke, K., Valesini, F., 2009. Changes in the benthic macroinvertebrate fauna of a large microtidal estuary following extreme modifications aimed at reducing eutrophication, Marine Pollution Bulletin 58, 1250—1262.</t>
+  </si>
+  <si>
+    <t>Hallett et al. (2019a)</t>
+  </si>
+  <si>
+    <t>Change to Hallett et al. (2019b/c - currently duplicated in ref list) or whichever letter (a,b, or c) finally becomes 'A rapid protocol for assessing sediment condition in eutrophic estuaries' reference</t>
+  </si>
+  <si>
+    <t>Hallett, Chris S., Trayler, K.M., Valesini, F.J., 2019a. The Fish Community Index: A Practical Management Tool for Monitoring and Reporting Estuarine Ecological Condition, Integrated environmental assessment and management 15, 726—738.</t>
+  </si>
+  <si>
+    <t>Chris S. Hallett et al. (2019c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should actually be Hallett et al. (2012) - Hallett, C.S., Valesini, F.J., Clarke, K.R., Hesp, S.A., Hoeksema, S.D., 2012. Development and validation of fish-based, multimetric indices for assessing the ecological health of western australian estuaries, Estuarine, Coastal and Shelf Science 104-105, 102–113. </t>
+  </si>
+  <si>
+    <t>Hallett, Chris S., Valesini, F.J., Kilminster, K., Wells, N.S., Eyre, B.D., 2019c. A rapid protocol for assessing sediment condition in eutrophic estuaries, Environmental Science: Processes &amp; Impacts 21, 1021–1037. https://doi.org/10.1039/c9em00141g</t>
+  </si>
+  <si>
+    <t>Chapter 9</t>
+  </si>
+  <si>
+    <t>Hallett and Valesini, 2012</t>
+  </si>
+  <si>
+    <t>Should this not be the original FCI ref instead, aka. Hallett et al. (2012)? Hallett, C.S., Valesini, F.J., Clarke, K.R., Hesp, S.A., Hoeksema, S.D., 2012. Development and validation of fish-based, multimetric....</t>
+  </si>
+  <si>
+    <t>Chris S. Hallett et al., 2019a</t>
+  </si>
+  <si>
+    <t>Young and Potter (2003a, 2003b)</t>
+  </si>
+  <si>
+    <t>Table 9.1 ref missing from Reference list</t>
+  </si>
+  <si>
+    <t>Young, G.C., Potter, I.C., 2003a. Influence of an artificial entrance channel on the ichthyofauna of a large estuary. Mar. Biol. 142, 1181–1194.</t>
+  </si>
+  <si>
+    <t>Young, G.C., Potter, I.C., 2003b. Induction of annual cyclical changes in the ichthyofauna of a large microtidal estuary following an artificial and permanent increase in tidal flow. J. Fish Biol. 63, 1306–1330.</t>
+  </si>
+  <si>
+    <t>Valesini et al. (2009)</t>
+  </si>
+  <si>
+    <t>Valesini, F.J., Coen, N.J., Wildsmith, M.D., Hourston, M., Tweedley, J.R., Hallett, C.S., Linke, T.E., Potter, I.C., 2009. Relationships between fish faunas and habitat type in south-western Australian estuaries. Fisheries Research and Development Corporation Final Report, Murdoch University, Western Australia.</t>
+  </si>
+  <si>
+    <t>Veale (2013)</t>
+  </si>
+  <si>
+    <t>Veale, L., 2013. Inter-period comparisons of the ichthyofaunas of two nearby, modified estuaries and the biology of Pelates octolineatus (Terapontidae). PhD thesis, Murdoch University, Western Australia, unpublished.</t>
+  </si>
+  <si>
+    <t>Loneragan et al. (1987)</t>
+  </si>
+  <si>
+    <t>Loneragan, N.R., Potter, I.C., Lenanton, R.C.J, Caputi, N., 1987. Influence of environmental variables on the fish fauna of the deeper waters of a large Australian estuary. Mar. Biol. 94, 631–641.</t>
+  </si>
+  <si>
+    <t>Christopher S. Hallett et al., 2012</t>
+  </si>
+  <si>
+    <t>Hallett, Christopher S., Valesini, F.J., Clarke, K.R., 2012. A method for selecting health index metrics in the absence of independent measures of ecological condition, Ecological Indicators 19, 240—252.</t>
+  </si>
+  <si>
+    <t>potter2016decadal?</t>
+  </si>
+  <si>
+    <t>Hyperlink broken</t>
+  </si>
+  <si>
+    <t>F. Valesini et al., 2019</t>
+  </si>
+  <si>
+    <t>Valesini, F., Hallett, C., Hipsey, M., Kilminster, K., Huang, P., Hennig, K., 2019. Peel-Harvey Estuary, Western Australia, in: Coasts and Estuaries. Elsevier, p. 103—120.</t>
+  </si>
+  <si>
+    <t>M. Wildsmith et al., 2009</t>
+  </si>
+  <si>
+    <t>Huang et al., 2023</t>
+  </si>
+  <si>
+    <t>Reference list citation needs DOI link correction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Huang, P., Hennig, K., Busch, B., Hipsey, M.R., 2023. The changing hydrology of the peel-harvey estuary: Past, present and future. Balancing estuarine and societal health in a changing environment: A decision support framework for sustaining the peel-harvey estuary-catchment system in south-western australia. The University of Western Australia. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://doi.org/https://doi.org/10.26182/ymst-gz83</t>
+    </r>
+  </si>
+  <si>
+    <t>Meteorology, 2017</t>
+  </si>
+  <si>
+    <t>Meteorology, B. of, 2017. Special Climate Statement 60—heavy rainfall and flooding in southwest Western Australia. Australian Government, Bureau of Meteorology, Commonwealth of Australia.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,11 +605,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,8 +673,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,24 +958,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6">
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="4:6">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6">
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -745,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -753,15 +1006,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6">
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="4:6">
       <c r="D8" t="s">
         <v>11</v>
       </c>
@@ -769,7 +1022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6">
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -777,22 +1030,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6">
       <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6">
       <c r="D11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6">
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6">
       <c r="D13" t="s">
         <v>18</v>
       </c>
@@ -800,92 +1053,322 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6">
       <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6">
       <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6">
       <c r="D16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/references/reference checking.xlsx
+++ b/references/reference checking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AED Dropbox\Peisheng Huang\PeelBook\deployed\peel-book\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_E8D5E80944B5FE16428A49A1F0F7152907497525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232C93A9-7220-4855-B9C2-E10BBDBDD106}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_E8D5E80944B5FE16428A49A1F0F7152907497525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86719E7E-F7F6-46AF-8E38-DBF828A08D98}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,34 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sorcha Cronin-O'Reilly</author>
-  </authors>
-  <commentList>
-    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{C438BA7D-B871-49BF-9107-93C9D9C3AF21}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Sorcha Cronin-O'Reilly:
-This should be replaced by Hallett et al. (2019b) - The sediment condition paper. 
-This 2019a ref is for the fish index, </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <r>
       <t xml:space="preserve">Allen, R.G., Pereira, L.S., Raes, D., Smith, M., 1998. Crop evapotranspiration-Guidelines for computing crop water requirements-FAO Irrigation and drainage paper 56, </t>
@@ -590,6 +564,12 @@
   </si>
   <si>
     <t>Meteorology, B. of, 2017. Special Climate Statement 60—heavy rainfall and flooding in southwest Western Australia. Australian Government, Bureau of Meteorology, Commonwealth of Australia.</t>
+  </si>
+  <si>
+    <t>Chris S. Hallett et al., 2019</t>
+  </si>
+  <si>
+    <t>Hallett, Chris S., Trayler, K.M., Valesini, F.J., 2019. The Fish Community Index: A Practical Management Tool for Monitoring and Reporting Estuarine Ecological Condition, Integrated environmental assessment and management 15, 726—738.</t>
   </si>
 </sst>
 </file>
@@ -958,11 +938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,8 +1347,15 @@
         <v>85</v>
       </c>
     </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/references/reference checking.xlsx
+++ b/references/reference checking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AED Dropbox\Peisheng Huang\PeelBook\deployed\peel-book\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_E8D5E80944B5FE16428A49A1F0F7152907497525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86719E7E-F7F6-46AF-8E38-DBF828A08D98}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_E8D5E80944B5FE16428A49A1F0F7152907497525" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F57F7C9-532A-4B70-95ED-9FBEF73ABF16}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">Allen, R.G., Pereira, L.S., Raes, D., Smith, M., 1998. Crop evapotranspiration-Guidelines for computing crop water requirements-FAO Irrigation and drainage paper 56, </t>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Hallett, Chris S., Trayler, K.M., Valesini, F.J., 2019. The Fish Community Index: A Practical Management Tool for Monitoring and Reporting Estuarine Ecological Condition, Integrated environmental assessment and management 15, 726—738.</t>
+  </si>
+  <si>
+    <t>All references from Section 9.4.4 onwards need hyperlinks</t>
   </si>
 </sst>
 </file>
@@ -939,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F58"/>
+  <dimension ref="A3:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1355,6 +1358,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="59" spans="2:4">
+      <c r="C59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
